--- a/data/trans_orig/cron_mort_index-Clase-trans_orig.xlsx
+++ b/data/trans_orig/cron_mort_index-Clase-trans_orig.xlsx
@@ -693,7 +693,7 @@
         <v>0.07760269606934367</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.1916124713298397</v>
+        <v>0.1916124713298396</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03394317509303332</v>
+        <v>0.03394216645099192</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02535656176660422</v>
+        <v>0.02307729058912403</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05891672790099992</v>
+        <v>0.05830383953369066</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1960288755963645</v>
+        <v>0.1966192643957783</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.007024074314968894</v>
+        <v>0.007128435810658741</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02780413627254538</v>
+        <v>0.03086728443366116</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.04336259289451457</v>
+        <v>0.04437769304616289</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1150725488757508</v>
+        <v>0.113406290073083</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0271252909540701</v>
+        <v>0.02640614743122499</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.03172836455552121</v>
+        <v>0.03014069047026722</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.05825407952986583</v>
+        <v>0.05981605236375537</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1684258370716153</v>
+        <v>0.166275057502941</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07404560858416241</v>
+        <v>0.07411378624391401</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06739061142062461</v>
+        <v>0.06374522804422307</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1150918337040902</v>
+        <v>0.1156698328729683</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2784858555889794</v>
+        <v>0.2756158779214213</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03972608573541002</v>
+        <v>0.04035020664472491</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.08327726868835968</v>
+        <v>0.08476387253996787</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1095692857392831</v>
+        <v>0.1056787493199753</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.175963422458048</v>
+        <v>0.1761920568345862</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05620872155552688</v>
+        <v>0.05366587101499803</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.0632677017395657</v>
+        <v>0.06251176529944198</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.09928889499681122</v>
+        <v>0.09923468482568093</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2201058919532707</v>
+        <v>0.2201916797278817</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>0.0785249330722759</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2105744825576483</v>
+        <v>0.2105744825576482</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.02260690515710565</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03041484144624709</v>
+        <v>0.02978931397402229</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04351621664930975</v>
+        <v>0.04184703400591241</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05317092470074323</v>
+        <v>0.05386305254692848</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1749933205528034</v>
+        <v>0.1730658679594649</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01035948938240143</v>
+        <v>0.009079443336404605</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02359899244791912</v>
+        <v>0.02438612414771072</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02049704170676155</v>
+        <v>0.01859677504287575</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1097967623238078</v>
+        <v>0.1117969487767996</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02354813763533146</v>
+        <v>0.02316083948856858</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03894713212086493</v>
+        <v>0.03894953493654965</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04097009207890828</v>
+        <v>0.04240322811026064</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.149595666151235</v>
+        <v>0.1532047646630308</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07213386787416855</v>
+        <v>0.07251183068979394</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09177583486241073</v>
+        <v>0.09169060523300508</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1106285340008603</v>
+        <v>0.1110440417515444</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2530854429068655</v>
+        <v>0.2556706658459482</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04471207921343159</v>
+        <v>0.04375768833042755</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.07525961274435539</v>
+        <v>0.07834589382585821</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.07017582265343184</v>
+        <v>0.06788797083854672</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1688890344279363</v>
+        <v>0.1704093568300264</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05136161726945727</v>
+        <v>0.05202027015918189</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.07829648201192878</v>
+        <v>0.0757802832727196</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.08039666088465225</v>
+        <v>0.07748658110490265</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2018563889668062</v>
+        <v>0.20301628994082</v>
       </c>
     </row>
     <row r="10">
@@ -965,7 +965,7 @@
         <v>0.1126730576508301</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.2750656492069138</v>
+        <v>0.2750656492069137</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03436150282473042</v>
+        <v>0.03658634932972499</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1102084515028159</v>
+        <v>0.1086058327635653</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.08907743631818686</v>
+        <v>0.08957454260814934</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2320566579521429</v>
+        <v>0.2319085697260968</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04643455509349925</v>
+        <v>0.04785826573854054</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05922715511355962</v>
+        <v>0.05920432926118466</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.06289184345392448</v>
+        <v>0.06370968967346119</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2019691664870066</v>
+        <v>0.2082501442715508</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0426625600420296</v>
+        <v>0.04289781235470637</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1034471453752565</v>
+        <v>0.1042776766500706</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.08879810097728767</v>
+        <v>0.0883698540943912</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2400513638235159</v>
+        <v>0.2378589782610984</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07111913668897699</v>
+        <v>0.07148460060498907</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1721823965040832</v>
+        <v>0.1749836871883091</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1440440343497271</v>
+        <v>0.1460634347836771</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3438529742561849</v>
+        <v>0.3374159953416865</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1363114732704785</v>
+        <v>0.1283202490213106</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1447592326542807</v>
+        <v>0.1354076234439467</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1632420680236979</v>
+        <v>0.1654764409708801</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3266870382316222</v>
+        <v>0.3278303122748191</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.07618902176338423</v>
+        <v>0.07862294699183385</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1502712932706055</v>
+        <v>0.1559532686346321</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1379432933228974</v>
+        <v>0.1392390205225828</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3187719490052867</v>
+        <v>0.3176176816873003</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06200213267528339</v>
+        <v>0.06061220668363657</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08344720895389873</v>
+        <v>0.08446409795595404</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08839569172451443</v>
+        <v>0.08665152932484871</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2353283846854997</v>
+        <v>0.2360074851237364</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03273571331004475</v>
+        <v>0.03217456060680341</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05663165039983878</v>
+        <v>0.05745406181818032</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04374464113342463</v>
+        <v>0.04571441421507531</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1429609166204749</v>
+        <v>0.1426646058498113</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05369121895549395</v>
+        <v>0.05498467877864307</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.07791158299163571</v>
+        <v>0.07763711472044614</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.07438059273791922</v>
+        <v>0.07483009104510145</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2024142329993184</v>
+        <v>0.2019162886181675</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.09212555692143819</v>
+        <v>0.09047330031198057</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1221438367428027</v>
+        <v>0.1222303221785075</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1244732157215523</v>
+        <v>0.1224911546821558</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2997495638778211</v>
+        <v>0.298351104815012</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06489885042727396</v>
+        <v>0.06427903805452562</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.09816087287389566</v>
+        <v>0.09550709154727617</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.08080362125672667</v>
+        <v>0.07905315174081225</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1888457073912929</v>
+        <v>0.1896956637270188</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.07604070622943475</v>
+        <v>0.07631755060068514</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1065609984735936</v>
+        <v>0.1063251704711571</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.09928339782995507</v>
+        <v>0.1020604254319795</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2444821071928152</v>
+        <v>0.2450940570913323</v>
       </c>
     </row>
     <row r="16">
@@ -1237,7 +1237,7 @@
         <v>0.1256253341376713</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.2782293281648569</v>
+        <v>0.2782293281648568</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04159168617854452</v>
+        <v>0.04038645313611721</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0556181690019386</v>
+        <v>0.05512530335812091</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1027008891961894</v>
+        <v>0.1014139625328952</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2186658168928895</v>
+        <v>0.2130979835793473</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04369850382368839</v>
+        <v>0.04370905167202439</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.09482306985398266</v>
+        <v>0.09817900047858207</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.101615705671331</v>
+        <v>0.09973383701850171</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2598381457538002</v>
+        <v>0.260337737366243</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.04722174586909445</v>
+        <v>0.04759408681988491</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.08467158699241314</v>
+        <v>0.08626110589785206</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1092794402822417</v>
+        <v>0.1067089311595827</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2547756256183865</v>
+        <v>0.25317695869838</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.09412610324732189</v>
+        <v>0.09032486951082211</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1100330801107872</v>
+        <v>0.1069655310122806</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1552682160508238</v>
+        <v>0.1532813412159292</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3033793677190368</v>
+        <v>0.3006399525738554</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.08592286659446145</v>
+        <v>0.08483343693715092</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1434228076127796</v>
+        <v>0.1459521949503007</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1542129532451447</v>
+        <v>0.1517107385362559</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3241040086205375</v>
+        <v>0.3245280126368329</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.07971488994106279</v>
+        <v>0.07982036921277796</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.120461452947368</v>
+        <v>0.1211254612019511</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1443863912306384</v>
+        <v>0.1437914435511221</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3063239692540887</v>
+        <v>0.3059176766801202</v>
       </c>
     </row>
     <row r="19">
@@ -1349,7 +1349,7 @@
         <v>0.01406623772235247</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.06899784712055931</v>
+        <v>0.06899784712055933</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.1068841140519877</v>
@@ -1361,7 +1361,7 @@
         <v>0.1550655921983991</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.2726784275371176</v>
+        <v>0.2726784275371177</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.08628054724360684</v>
@@ -1385,37 +1385,37 @@
       </c>
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="n">
-        <v>0.01047489048556084</v>
+        <v>0.0104215708058797</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.003559051545721522</v>
+        <v>0.003907189945162777</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.02180315976513388</v>
+        <v>0.02443848257344195</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.09101554840179303</v>
+        <v>0.08963654063629944</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1364894216752499</v>
+        <v>0.1337684739051343</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1342228329802185</v>
+        <v>0.1316491894899394</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2422338844430492</v>
+        <v>0.2401337005159065</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.0717790965622401</v>
+        <v>0.07354107010489316</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.112337255339792</v>
+        <v>0.1141741443721266</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1079479359876703</v>
+        <v>0.1080736708160478</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1981098570780496</v>
+        <v>0.2015586434676115</v>
       </c>
     </row>
     <row r="21">
@@ -1427,37 +1427,37 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.05582486553547178</v>
+        <v>0.05356122848180173</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.03222119649302631</v>
+        <v>0.03272747527411063</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1904492791294385</v>
+        <v>0.1911463160827399</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1257063958114022</v>
+        <v>0.1238998990277428</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1821370320030549</v>
+        <v>0.1805212499556111</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1792850056416638</v>
+        <v>0.1785085834491056</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3062368155380145</v>
+        <v>0.3065270698275767</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1007692630321046</v>
+        <v>0.1026823486216888</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1512386918877913</v>
+        <v>0.1534050665633738</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1450377610229649</v>
+        <v>0.1454177622414653</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2568803981545149</v>
+        <v>0.2586081908646893</v>
       </c>
     </row>
     <row r="22">
@@ -1516,40 +1516,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.04882129938456272</v>
+        <v>0.04903984664824821</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.07655441653401013</v>
+        <v>0.0771951313569884</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.08741185492658241</v>
+        <v>0.08671928962731604</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2223527220653633</v>
+        <v>0.2206827389146767</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.05927402270372324</v>
+        <v>0.05961966421506197</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.09595999754879489</v>
+        <v>0.09625670895026488</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.09396896019937871</v>
+        <v>0.09441496197048879</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2058613442162394</v>
+        <v>0.2060747106905953</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.05693659478186309</v>
+        <v>0.05680808253877027</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.09006313013892965</v>
+        <v>0.08947279406577911</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.09300818430733962</v>
+        <v>0.09386573059053836</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2181261184500385</v>
+        <v>0.2183764152538444</v>
       </c>
     </row>
     <row r="24">
@@ -1560,40 +1560,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.06559628694094999</v>
+        <v>0.06460225425032161</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.09721878846321647</v>
+        <v>0.09784396270550393</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1072095576389711</v>
+        <v>0.107717206240186</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2571392637707435</v>
+        <v>0.2573295823776623</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.07691185884418028</v>
+        <v>0.07732730631927856</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.117834432737515</v>
+        <v>0.1180701112846251</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1159834868650724</v>
+        <v>0.1169079242594404</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2320803799565286</v>
+        <v>0.2335571380659765</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.06851863659258853</v>
+        <v>0.06813355744589021</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1046658373946182</v>
+        <v>0.1051939368837961</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.107585633253494</v>
+        <v>0.1079643603303824</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2402330333696234</v>
+        <v>0.2406339345858281</v>
       </c>
     </row>
     <row r="25">
